--- a/IterLeadCntct.xlsx
+++ b/IterLeadCntct.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus18.TRANSITUS18-PC\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861A8229-8CC0-42B9-B9A9-F965B2239058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6925A-C316-40BF-B631-DCBFEF2BEA2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="114">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -742,7 +742,7 @@
   <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I49"/>
+      <selection activeCell="I2" sqref="I2:I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1623,6 +1623,9 @@
       <c r="H57" t="s">
         <v>101</v>
       </c>
+      <c r="I57" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
